--- a/Sprint3/week6/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint3/week6/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\Sprint3\week6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/Sprint3/week6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA38DFAC-2AED-4A37-A456-FB5CAA7AE915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{AA38DFAC-2AED-4A37-A456-FB5CAA7AE915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A1945C-81FC-498B-B3EC-2A24BE1B34EB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="208">
   <si>
     <t>Project:</t>
   </si>
@@ -668,6 +668,9 @@
   <si>
     <t>URDF finalize design - change joints add gripper</t>
   </si>
+  <si>
+    <t>Sprint Task 3.2: Simulation Update (Unity)</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,7 +1146,7 @@
                   <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96874999999999989</c:v>
+                  <c:v>1.6145833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.1666666666666665</c:v>
@@ -1372,22 +1375,22 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9312499999999997</c:v>
+                  <c:v>1.9937499999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3923611111111112</c:v>
+                  <c:v>1.4756944444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3368055555555556</c:v>
+                  <c:v>1.4201388888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7222222222222223</c:v>
+                  <c:v>1.8055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5520833333333335</c:v>
+                  <c:v>1.6354166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1411,22 +1414,22 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9312499999999997</c:v>
+                  <c:v>1.9937499999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3923611111111112</c:v>
+                  <c:v>1.4756944444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3368055555555556</c:v>
+                  <c:v>1.4201388888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7222222222222223</c:v>
+                  <c:v>1.8055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5520833333333335</c:v>
+                  <c:v>1.6354166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1957,13 +1960,13 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.43124999999999997</c:v>
+                  <c:v>0.84791666666666654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.10416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.3333333333333329E-2</c:v>
@@ -1993,7 +1996,7 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -4282,7 +4285,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4985,7 +4988,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -5013,7 +5016,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -5041,7 +5044,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -5123,7 +5126,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -5149,7 +5152,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -5175,7 +5178,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -5201,7 +5204,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -7228,7 +7231,7 @@
       <c r="W122" s="39"/>
       <c r="X122" s="39"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -7251,7 +7254,7 @@
       <c r="W123" s="39"/>
       <c r="X123" s="39"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -7274,7 +7277,7 @@
       <c r="W124" s="39"/>
       <c r="X124" s="39"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -7297,7 +7300,7 @@
       <c r="W125" s="39"/>
       <c r="X125" s="39"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -7320,7 +7323,7 @@
       <c r="W126" s="39"/>
       <c r="X126" s="39"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -7343,7 +7346,7 @@
       <c r="W127" s="39"/>
       <c r="X127" s="39"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>160</v>
       </c>
@@ -7398,7 +7401,7 @@
       <c r="W128" s="39"/>
       <c r="X128" s="39"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="47"/>
       <c r="O129" s="39"/>
@@ -20745,8 +20748,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20849,11 +20852,21 @@
       <c r="C6" s="14">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E6" s="44">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F6" s="44">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -20873,7 +20886,9 @@
       <c r="B7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -20898,7 +20913,9 @@
       <c r="B8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
@@ -21161,13 +21178,17 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="H18" s="44">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
@@ -23720,27 +23741,27 @@
       </c>
       <c r="C128" s="46">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0.29166666666666663</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="D128" s="46">
         <f t="shared" si="0"/>
-        <v>0.22916666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="E128" s="46">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="F128" s="46">
         <f t="shared" si="0"/>
-        <v>0.19791666666666666</v>
+        <v>0.28125</v>
       </c>
       <c r="G128" s="46">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I128" s="46">
         <f t="shared" si="0"/>
@@ -23789,43 +23810,43 @@
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
-        <v>0.29166666666666663</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="D130" s="39">
         <f>SUM(D128,C128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E130" s="39">
         <f>SUM(E128,C128,D128)</f>
-        <v>0.5625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F130" s="39">
         <f>SUM(C128:F128)</f>
-        <v>0.76041666666666652</v>
+        <v>1.0729166666666665</v>
       </c>
       <c r="G130" s="39">
         <f>SUM(C128:G128)</f>
-        <v>0.96874999999999989</v>
+        <v>1.3645833333333333</v>
       </c>
       <c r="H130" s="39">
         <f>SUM(C128:H128)</f>
-        <v>0.96874999999999989</v>
+        <v>1.6145833333333333</v>
       </c>
       <c r="I130" s="39">
         <f>SUM(C128:I128)</f>
-        <v>0.96874999999999989</v>
+        <v>1.6145833333333333</v>
       </c>
       <c r="J130" s="39">
         <f>SUM(C128:J128)</f>
-        <v>0.96874999999999989</v>
+        <v>1.6145833333333333</v>
       </c>
       <c r="K130" s="39">
         <f>SUM(C128:K128)</f>
-        <v>0.96874999999999989</v>
+        <v>1.6145833333333333</v>
       </c>
       <c r="L130" s="39">
         <f>SUM(C128:L128)</f>
-        <v>0.96874999999999989</v>
+        <v>1.6145833333333333</v>
       </c>
       <c r="M130" s="47"/>
       <c r="O130" s="39"/>
@@ -23845,43 +23866,43 @@
       </c>
       <c r="C131" s="39">
         <f>Parameters!$G$9-C130</f>
-        <v>5.5416666666666661</v>
+        <v>5.4791666666666661</v>
       </c>
       <c r="D131" s="39">
         <f>Parameters!$G$9-D130</f>
-        <v>5.3125</v>
+        <v>5.1666666666666661</v>
       </c>
       <c r="E131" s="39">
         <f>Parameters!$G$9-E130</f>
-        <v>5.270833333333333</v>
+        <v>5.0416666666666661</v>
       </c>
       <c r="F131" s="39">
         <f>Parameters!$G$9-F130</f>
-        <v>5.0729166666666661</v>
+        <v>4.7604166666666661</v>
       </c>
       <c r="G131" s="39">
         <f>Parameters!$G$9-G130</f>
-        <v>4.864583333333333</v>
+        <v>4.46875</v>
       </c>
       <c r="H131" s="39">
         <f>Parameters!$G$9-H130</f>
-        <v>4.864583333333333</v>
+        <v>4.21875</v>
       </c>
       <c r="I131" s="39">
         <f>Parameters!$G$9-I130</f>
-        <v>4.864583333333333</v>
+        <v>4.21875</v>
       </c>
       <c r="J131" s="39">
         <f>Parameters!$G$9-J130</f>
-        <v>4.864583333333333</v>
+        <v>4.21875</v>
       </c>
       <c r="K131" s="39">
         <f>Parameters!$G$9-K130</f>
-        <v>4.864583333333333</v>
+        <v>4.21875</v>
       </c>
       <c r="L131" s="39">
         <f>Parameters!$G$9-L130</f>
-        <v>4.864583333333333</v>
+        <v>4.21875</v>
       </c>
       <c r="O131" s="39"/>
       <c r="P131" s="39"/>
@@ -25448,7 +25469,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25476,7 +25497,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25504,7 +25525,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -25586,7 +25607,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="str">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>Sprint Task 4.5: requesting parts</v>
@@ -25612,7 +25633,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="str">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>Belt inspection:</v>
@@ -25638,7 +25659,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="str">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>sprint Task 4.6: Fixing the robot manipulator 3D mesh</v>
@@ -25664,7 +25685,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -27691,7 +27712,7 @@
       <c r="W122" s="39"/>
       <c r="X122" s="39"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -27714,7 +27735,7 @@
       <c r="W123" s="39"/>
       <c r="X123" s="39"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -27737,7 +27758,7 @@
       <c r="W124" s="39"/>
       <c r="X124" s="39"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -27760,7 +27781,7 @@
       <c r="W125" s="39"/>
       <c r="X125" s="39"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -27783,7 +27804,7 @@
       <c r="W126" s="39"/>
       <c r="X126" s="39"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -27806,7 +27827,7 @@
       <c r="W127" s="39"/>
       <c r="X127" s="39"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>160</v>
       </c>
@@ -27861,7 +27882,7 @@
       <c r="W128" s="39"/>
       <c r="X128" s="39"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="47"/>
       <c r="O129" s="39"/>
@@ -28944,23 +28965,23 @@
       </c>
       <c r="D6" s="48">
         <f>SUM('Serkan Efe Durusu'!D6,'Ismail Elmasry'!D6,'can Işmar'!D6,'Marios Papalouka'!D6,'Metehan Topaç'!D6,'Celine Zanders '!D6)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E6" s="48">
         <f>SUM('Serkan Efe Durusu'!E6,'Ismail Elmasry'!E6,'can Işmar'!E6,'Marios Papalouka'!E6,'Metehan Topaç'!E6,'Celine Zanders '!E6)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F6" s="48">
         <f>SUM('Serkan Efe Durusu'!F6,'Ismail Elmasry'!F6,'can Işmar'!F6,'Marios Papalouka'!F6,'Metehan Topaç'!F6,'Celine Zanders '!F6)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="G6" s="48">
         <f>SUM('Serkan Efe Durusu'!G6,'Ismail Elmasry'!G6,'can Işmar'!G6,'Marios Papalouka'!G6,'Metehan Topaç'!G6,'Celine Zanders '!G6)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H6" s="48">
         <f>SUM('Serkan Efe Durusu'!H6,'Ismail Elmasry'!H6,'can Işmar'!H6,'Marios Papalouka'!H6,'Metehan Topaç'!H6,'Celine Zanders '!H6)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="I6" s="48">
         <f>SUM('Serkan Efe Durusu'!I6,'Ismail Elmasry'!I6,'can Işmar'!I6,'Marios Papalouka'!I6,'Metehan Topaç'!I6,'Celine Zanders '!I6)</f>
@@ -28980,7 +29001,7 @@
       </c>
       <c r="M6" s="49">
         <f t="shared" ref="M6:M122" si="0">SUM(C6:L6)</f>
-        <v>0.43124999999999997</v>
+        <v>0.84791666666666654</v>
       </c>
       <c r="N6" s="50" t="str">
         <f t="array" ref="N6">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
@@ -28994,7 +29015,7 @@
       </c>
       <c r="C7" s="48">
         <f>SUM('Serkan Efe Durusu'!C7,'Ismail Elmasry'!C7,'can Işmar'!C7,'Marios Papalouka'!C7,'Metehan Topaç'!C7,'Celine Zanders '!C7)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="D7" s="48">
         <f>SUM('Serkan Efe Durusu'!D7,'Ismail Elmasry'!D7,'can Işmar'!D7,'Marios Papalouka'!D7,'Metehan Topaç'!D7,'Celine Zanders '!D7)</f>
@@ -29034,7 +29055,7 @@
       </c>
       <c r="M7" s="51">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="N7" s="50" t="str">
         <f t="array" ref="N7">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
@@ -29048,7 +29069,7 @@
       </c>
       <c r="C8" s="48">
         <f>SUM('Serkan Efe Durusu'!C8,'Ismail Elmasry'!C8,'can Işmar'!C8,'Marios Papalouka'!C8,'Metehan Topaç'!C8,'Celine Zanders '!C8)</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D8" s="48">
         <f>SUM('Serkan Efe Durusu'!D8,'Ismail Elmasry'!D8,'can Işmar'!D8,'Marios Papalouka'!D8,'Metehan Topaç'!D8,'Celine Zanders '!D8)</f>
@@ -29088,7 +29109,7 @@
       </c>
       <c r="M8" s="51">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="N8" s="50" t="str">
         <f t="array" ref="N8">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M8/INDEX(Tasks,1,3),"")</f>
@@ -29607,7 +29628,7 @@
       </c>
       <c r="H18" s="48">
         <f>SUM('Serkan Efe Durusu'!H18,'Ismail Elmasry'!H18,'can Işmar'!H18,'Marios Papalouka'!H18,'Metehan Topaç'!H18,'Celine Zanders '!H18)</f>
-        <v>0.125</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="I18" s="48">
         <f>SUM('Serkan Efe Durusu'!I18,'Ismail Elmasry'!I18,'can Işmar'!I18,'Marios Papalouka'!I18,'Metehan Topaç'!I18,'Celine Zanders '!I18)</f>
@@ -29627,7 +29648,7 @@
       </c>
       <c r="M18" s="52">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N18" s="50" t="str">
         <f t="array" ref="N18">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M18/INDEX(Tasks,1,3),"")</f>
@@ -35260,7 +35281,7 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="25"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35505,27 +35526,27 @@
       </c>
       <c r="C139" s="44">
         <f>'Metehan Topaç'!C128</f>
-        <v>0.29166666666666663</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="D139" s="44">
         <f>'Metehan Topaç'!D128</f>
-        <v>0.22916666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="E139" s="44">
         <f>'Metehan Topaç'!E128</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="F139" s="44">
         <f>'Metehan Topaç'!F128</f>
-        <v>0.19791666666666666</v>
+        <v>0.28125</v>
       </c>
       <c r="G139" s="44">
         <f>'Metehan Topaç'!G128</f>
-        <v>0.20833333333333334</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H139" s="44">
         <f>'Metehan Topaç'!H128</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I139" s="44">
         <f>'Metehan Topaç'!I128</f>
@@ -35545,7 +35566,7 @@
       </c>
       <c r="M139" s="54">
         <f t="shared" si="1"/>
-        <v>0.96874999999999989</v>
+        <v>1.6145833333333333</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35681,27 +35702,27 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="54">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>1.9312499999999997</v>
+        <v>1.9937499999999997</v>
       </c>
       <c r="D143" s="54">
         <f t="shared" si="2"/>
-        <v>1.3923611111111112</v>
+        <v>1.4756944444444444</v>
       </c>
       <c r="E143" s="54">
         <f t="shared" si="2"/>
-        <v>1.3368055555555556</v>
+        <v>1.4201388888888888</v>
       </c>
       <c r="F143" s="54">
         <f t="shared" si="2"/>
-        <v>1.7222222222222223</v>
+        <v>1.8055555555555556</v>
       </c>
       <c r="G143" s="54">
         <f t="shared" si="2"/>
-        <v>1.5520833333333335</v>
+        <v>1.6354166666666665</v>
       </c>
       <c r="H143" s="54">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="I143" s="54">
         <f t="shared" si="2"/>
@@ -35721,7 +35742,7 @@
       </c>
       <c r="M143" s="54">
         <f t="shared" si="1"/>
-        <v>8.2680555555555557</v>
+        <v>8.9138888888888879</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
